--- a/biology/Zoologie/Camptopus/Camptopus.xlsx
+++ b/biology/Zoologie/Camptopus/Camptopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camptopus est un genre d'insectes du sous-ordre des hétéroptères (punaises), de la famille des Alydidae, sous-famille des Alydinae.
 </t>
@@ -511,11 +523,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Camptopus a été décrit par les entomologistes français Charles Jean Baptiste Amyot et Jean Guillaume Audinet Serville en 1843[1].
-Liste des espèces
-Selon  Species File              (6 octobre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Camptopus a été décrit par les entomologistes français Charles Jean Baptiste Amyot et Jean Guillaume Audinet Serville en 1843.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Camptopus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camptopus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon  Species File              (6 octobre 2019) :
 Camptopus bifasciatus Fieber, 1864
 Camptopus eberti Seidenstücker, 1968
 Camptopus illustris Horváth, 1899
